--- a/data/trans_camb/P26-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P26-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.780898298640517</v>
+        <v>-5.384483646425306</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.090100962421893</v>
+        <v>-7.967493445533785</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-23.86357205028837</v>
+        <v>-23.75141269348456</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.760582079301446</v>
+        <v>-5.561483767377289</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.52908901020398</v>
+        <v>-15.54588609890084</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-32.58364378008191</v>
+        <v>-32.32723471210569</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.985854044975141</v>
+        <v>-3.834566173785915</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-10.23633678494445</v>
+        <v>-10.28211874642209</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-26.87791891359378</v>
+        <v>-27.08006666059883</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.082340093922207</v>
+        <v>4.459432340400129</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.841351148141684</v>
+        <v>2.122003235871755</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-15.10606675465553</v>
+        <v>-14.68474169738384</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.577682881643118</v>
+        <v>5.526712274177646</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.924334886063783</v>
+        <v>-5.214867464145349</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-23.9469488914059</v>
+        <v>-23.88851113568306</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.444930587533902</v>
+        <v>3.624355141056895</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.243433313324578</v>
+        <v>-2.934868993298551</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-20.748127403736</v>
+        <v>-21.06365381564772</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.1954905387877748</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.7261725750807591</v>
+        <v>-0.7261725750807593</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1771228991405996</v>
+        <v>-0.176692336380472</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2584012562003137</v>
+        <v>-0.2587797956341</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7836114234747416</v>
+        <v>-0.7821478027197858</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1414251733628965</v>
+        <v>-0.1382940268864653</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.392367305905608</v>
+        <v>-0.3886007660781833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8035812301711642</v>
+        <v>-0.8042385392051733</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1161124730221791</v>
+        <v>-0.111212287810135</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2937798513874487</v>
+        <v>-0.2947651725923434</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7744119479165684</v>
+        <v>-0.7761643426972095</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1628430828964075</v>
+        <v>0.1778475839883122</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07211207926065276</v>
+        <v>0.08066783560651974</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.5810374374041972</v>
+        <v>-0.5676168783108304</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1639892173709221</v>
+        <v>0.1540234167433474</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1417133772458765</v>
+        <v>-0.1439476501547532</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.6904528164205304</v>
+        <v>-0.6855237399026802</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1114529247165697</v>
+        <v>0.1181025760486997</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1024732358711466</v>
+        <v>-0.09022580326811752</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.6608603759920132</v>
+        <v>-0.6684820459705736</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3884209449913262</v>
+        <v>-0.3227505394312625</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.100686006094497</v>
+        <v>-9.416297123185064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-23.09880278544768</v>
+        <v>-23.03421098511588</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.142700082286374</v>
+        <v>-2.474226070071101</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-16.85755182167731</v>
+        <v>-16.3453180691018</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-27.50043621269189</v>
+        <v>-26.99630919784298</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02614510607778069</v>
+        <v>-0.2632427478263742</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.69952417087534</v>
+        <v>-11.62404052281019</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-24.14150025006352</v>
+        <v>-24.47908225523337</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.18455150234044</v>
+        <v>8.520817897752256</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.5892331144995466</v>
+        <v>-1.09209793607307</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-15.57282188877399</v>
+        <v>-15.46630925464451</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.742537191437916</v>
+        <v>7.143955450948219</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-7.819407724937602</v>
+        <v>-7.533638629363224</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-19.63929656770947</v>
+        <v>-19.9302818315553</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.203268091152371</v>
+        <v>6.181058668430204</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-5.731085155208773</v>
+        <v>-5.610717286318259</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-18.93881578826539</v>
+        <v>-18.78509086648381</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01103545736264643</v>
+        <v>-0.009873604191978896</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2949448866275144</v>
+        <v>-0.2992980620863303</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7575027712823806</v>
+        <v>-0.7553458149475634</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05363857890716817</v>
+        <v>-0.06177940485210875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4214211629177327</v>
+        <v>-0.4141378938290621</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6880536526608166</v>
+        <v>-0.6872341748631635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.00144121222259571</v>
+        <v>-0.007022125553525107</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3399188197473917</v>
+        <v>-0.3356426896112039</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6985626201374917</v>
+        <v>-0.6989779811943421</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3087596538577532</v>
+        <v>0.3316924971163759</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.02582873747724508</v>
+        <v>-0.03993358573812344</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5768411893765119</v>
+        <v>-0.5782089662237458</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1933404251011836</v>
+        <v>0.1991795058290243</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2275974446859921</v>
+        <v>-0.2187220822961791</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5581998669040291</v>
+        <v>-0.5569872839581401</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1993435888012685</v>
+        <v>0.1977487772612712</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1836539056746738</v>
+        <v>-0.175682442624216</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5936769639186421</v>
+        <v>-0.5880632255549545</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.25691985190918</v>
+        <v>-2.371374580922761</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.365305383804609</v>
+        <v>-7.533741877636348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-22.84717748255284</v>
+        <v>-23.61125185643011</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02370819486347778</v>
+        <v>-0.5155858414806082</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.583783090656086</v>
+        <v>-6.714868690951642</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-24.77756791687765</v>
+        <v>-24.58856200321455</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5649284584970754</v>
+        <v>0.5868676747807664</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.93121795806203</v>
+        <v>-4.976805545548751</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-22.52036528530133</v>
+        <v>-22.42180472853646</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.143480917463327</v>
+        <v>8.23872317372844</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.617468482148299</v>
+        <v>3.285455058373449</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-13.00884252237832</v>
+        <v>-13.54903429199617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.93449040690846</v>
+        <v>10.12957130974737</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.862537502737364</v>
+        <v>3.541918369152206</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-15.37263795061459</v>
+        <v>-15.86594365425007</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.527137517728512</v>
+        <v>7.864234644353546</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.246928298850885</v>
+        <v>2.258123445788769</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-15.80498747488827</v>
+        <v>-15.88283889527108</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.0343769461620369</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.5559742892226271</v>
+        <v>-0.555974289222627</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1314684034858768</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.06917895555653181</v>
+        <v>-0.07291560873010712</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1996926885437852</v>
+        <v>-0.2335245238823132</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7130947616172539</v>
+        <v>-0.7175991137872768</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.002942591396586739</v>
+        <v>-0.01537370591353245</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1688358400123059</v>
+        <v>-0.1733473529374702</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.640986404577806</v>
+        <v>-0.633812059609595</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01668264640852668</v>
+        <v>0.01749326096598603</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1394185183614824</v>
+        <v>-0.1448640192046075</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6475755466909281</v>
+        <v>-0.6446025935368479</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3031896500404361</v>
+        <v>0.3065096794542582</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1332177479636225</v>
+        <v>0.1143636948417764</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.481228622195695</v>
+        <v>-0.4863098329358005</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.322763556800762</v>
+        <v>0.3018380487924155</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1168368713504267</v>
+        <v>0.1041862798972853</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4587074662616729</v>
+        <v>-0.4690123356398356</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2740000482445705</v>
+        <v>0.2594330348021313</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07390199524963416</v>
+        <v>0.07254342454470952</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.5044995201958543</v>
+        <v>-0.501563523230954</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-15.25752065779631</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-22.3815169620121</v>
+        <v>-22.38151696201209</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.88902250262066</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.688686066070083</v>
+        <v>4.372851607468634</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.614085909073391</v>
+        <v>-7.807902748388972</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.70387178793679</v>
+        <v>-16.29894891397445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.133430787105067</v>
+        <v>-4.852746386887167</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-19.31907266188215</v>
+        <v>-19.14551107391617</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-26.18814973551539</v>
+        <v>-26.46107292772725</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8328960612837019</v>
+        <v>0.7788487246205099</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-12.57586253577318</v>
+        <v>-12.51123917900113</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-20.35914285709025</v>
+        <v>-20.47564475589629</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.58997199146511</v>
+        <v>13.11980191363208</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6449049911715115</v>
+        <v>0.4131703129121001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-8.721933189309924</v>
+        <v>-8.232168520583302</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.693124479518261</v>
+        <v>3.622148787848638</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-11.17100095567436</v>
+        <v>-10.75446710097683</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-18.28269768441986</v>
+        <v>-18.82039978498795</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.108774732484584</v>
+        <v>7.312691987990813</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-6.858844195047367</v>
+        <v>-6.699027810724878</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-14.70875859530058</v>
+        <v>-14.91161700457785</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1277316570827775</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4444650406081045</v>
+        <v>-0.4444650406081044</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.02092743448839851</v>
@@ -1402,7 +1402,7 @@
         <v>-0.4116486835761366</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.6038544662983245</v>
+        <v>-0.6038544662983243</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1188828652759224</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.150659593300034</v>
+        <v>0.145274919587499</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2594808125180376</v>
+        <v>-0.2601595386921929</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5562754366179951</v>
+        <v>-0.5453394209177626</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1277302265514443</v>
+        <v>-0.1252516240749655</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4985862630077481</v>
+        <v>-0.4937639815672716</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6632170423781951</v>
+        <v>-0.6678863110794049</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02340889522696624</v>
+        <v>0.02259076647557884</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3735346456463796</v>
+        <v>-0.368970456824691</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5953169512372769</v>
+        <v>-0.5961181823494984</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5328445102893258</v>
+        <v>0.5071774419797085</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.02471970003710796</v>
+        <v>0.01617303415662071</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.3246449118182419</v>
+        <v>-0.3242404044402388</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1035926774187296</v>
+        <v>0.1029658123288611</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3176323001463066</v>
+        <v>-0.3128498804137115</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.5291475480364998</v>
+        <v>-0.5356437158169892</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2281411902467453</v>
+        <v>0.232569000943279</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2189307476831111</v>
+        <v>-0.2152889510314224</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4733172149867113</v>
+        <v>-0.4711876817237078</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.685040905814825</v>
+        <v>1.902208197016397</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.792584179326322</v>
+        <v>-5.595894896171997</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.57263697304388</v>
+        <v>-19.2967357698062</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9622319211737843</v>
+        <v>-0.7694666062281809</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.92276807633019</v>
+        <v>-12.54124848038557</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-25.56311383123003</v>
+        <v>-25.36909635364147</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.286694241909169</v>
+        <v>1.14203064634993</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.515167175000277</v>
+        <v>-8.580567225765424</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-21.71801885037694</v>
+        <v>-21.8621786029597</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.594862220696853</v>
+        <v>6.505056325896708</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.1327513755839</v>
+        <v>-1.307968784357139</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-15.01825215787863</v>
+        <v>-15.11513660561055</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.057238914870482</v>
+        <v>4.014995293362221</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-8.064724655087792</v>
+        <v>-8.086040514431041</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-21.29593511487397</v>
+        <v>-21.16769844153373</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.796406490058911</v>
+        <v>4.575169049851168</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-5.045369280957295</v>
+        <v>-5.209762442714641</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-18.86609893205311</v>
+        <v>-18.77583337826188</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.05275153759596403</v>
+        <v>0.06409859033752179</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1945962643477269</v>
+        <v>-0.1891450845883604</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6548803940438425</v>
+        <v>-0.6476911520654129</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02531859130111253</v>
+        <v>-0.02039676046564762</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.333174093575328</v>
+        <v>-0.328315553953289</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6666722027776353</v>
+        <v>-0.6632541436396413</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03883382036677163</v>
+        <v>0.03426543424533331</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2540373164089783</v>
+        <v>-0.2540072074430461</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6441797143205975</v>
+        <v>-0.6433303888524784</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2408911248575505</v>
+        <v>0.2385721268744762</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.04060611049218535</v>
+        <v>-0.04910173316407289</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.5479638493315153</v>
+        <v>-0.5442832750877882</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1130518525748078</v>
+        <v>0.1121438676088221</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2245871369707965</v>
+        <v>-0.2249305627191943</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.5928362159602971</v>
+        <v>-0.5920254660459066</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1493482987723523</v>
+        <v>0.1428707410024004</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1586906290630787</v>
+        <v>-0.162765583133198</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.585368321915084</v>
+        <v>-0.5803488482498069</v>
       </c>
     </row>
     <row r="34">
